--- a/Misaka-v1.0/Project Outputs for Misaka-v1.0/Misaka-v1.0.xlsx
+++ b/Misaka-v1.0/Project Outputs for Misaka-v1.0/Misaka-v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Swarm2020\Misaka-PCB\Misaka-v1.0\Project Outputs for Misaka-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C7A773-EEEC-4435-A0B3-0390E73E30D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04D71BC-AA76-4653-9A9B-8FC9076EB548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="10388" xr2:uid="{397ABD5F-2E77-4A8D-8937-AF315209B593}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="10388" xr2:uid="{CB74D529-7363-4C96-A7DA-C2C2F4E46D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Misaka-v1.0" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <t>Header, 3-Pin, Dual row</t>
   </si>
   <si>
-    <t>ICSP1, ICSP2, TEST HEADER, TEST HEADER1, UART</t>
+    <t>ICSP1, ICSP2, POWER, TEST HEADER, TEST HEADER1, UART</t>
   </si>
   <si>
     <t>HDR2X3</t>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799F0AE-6AAC-4B1B-815C-40651A505925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5439BB88-68B4-4707-962F-9756240C82F7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>116</v>
       </c>
       <c r="F28" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">

--- a/Misaka-v1.0/Project Outputs for Misaka-v1.0/Misaka-v1.0.xlsx
+++ b/Misaka-v1.0/Project Outputs for Misaka-v1.0/Misaka-v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Swarm2020\Misaka-PCB\Misaka-v1.0\Project Outputs for Misaka-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04D71BC-AA76-4653-9A9B-8FC9076EB548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE7D032-EA31-4AF3-9594-BCE05F294401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="10388" xr2:uid="{CB74D529-7363-4C96-A7DA-C2C2F4E46D66}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="10388" xr2:uid="{B158FCB6-7AA8-449D-B238-FEE59AA7C09E}"/>
   </bookViews>
   <sheets>
     <sheet name="Misaka-v1.0" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>100nF (104) 10% 50V</t>
   </si>
   <si>
-    <t>C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C32, C34, C36, C37, C VCCREG, C VDD, C VREG, C-VSREG</t>
+    <t>C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C32, C34, C36, C37, C-VCCREG, C-VDD, C-VREG, C-VSREG</t>
   </si>
   <si>
     <t>10uF (106) 10% 10V</t>
@@ -135,10 +135,31 @@
     <t>CMP-2000-06222-1</t>
   </si>
   <si>
+    <t>Header 7</t>
+  </si>
+  <si>
+    <t>Header, 7-Pin</t>
+  </si>
+  <si>
+    <t>CalibrationHeader, P2</t>
+  </si>
+  <si>
+    <t>HDR1X7</t>
+  </si>
+  <si>
+    <t>MHDR2X4</t>
+  </si>
+  <si>
+    <t>Header, 4-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
     <t>470nF (474) 10% 25V</t>
   </si>
   <si>
-    <t>C BOOT, C VCC</t>
+    <t>C-BOOT, C-VCC</t>
   </si>
   <si>
     <t>0603 470nF (474) 10% 25V</t>
@@ -147,19 +168,34 @@
     <t>47nF (473) 10% 50V</t>
   </si>
   <si>
-    <t>C FLY</t>
+    <t>C-FLY</t>
   </si>
   <si>
     <t>0603 47nF (473) 10% 50V</t>
   </si>
   <si>
+    <t>CP2104-F03-GM</t>
+  </si>
+  <si>
+    <t>Single-Chip USB to UART Bridge, 4 Dig I/O Pins, Internal Oscillator, 1024 Bytes EEPROM, -40 to 85 degC, 24-pin QFN</t>
+  </si>
+  <si>
+    <t>CP2104</t>
+  </si>
+  <si>
+    <t>SLAB-QFN-24-2675x2675TP_M</t>
+  </si>
+  <si>
+    <t>CMP-0511-00004-1</t>
+  </si>
+  <si>
     <t>EEE-FK1H220P</t>
   </si>
   <si>
     <t>Cap Aluminum Lytic, 22 uF, +/- 20%, 6.3 to 100 V, -55 to 105 degC, 2-Pin SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>C VREGPOL</t>
+    <t>C-VREGPOL</t>
   </si>
   <si>
     <t>PNSC-EEE-FK1H220P_L</t>
@@ -171,46 +207,10 @@
     <t>220nF (224) 10% 25V</t>
   </si>
   <si>
-    <t>C VS</t>
+    <t>C-VS</t>
   </si>
   <si>
     <t>0603 220nF (224) 10% 25V</t>
-  </si>
-  <si>
-    <t>Header 7</t>
-  </si>
-  <si>
-    <t>Header, 7-Pin</t>
-  </si>
-  <si>
-    <t>CalibrationHeader, P2</t>
-  </si>
-  <si>
-    <t>HDR1X7</t>
-  </si>
-  <si>
-    <t>MHDR2X4</t>
-  </si>
-  <si>
-    <t>Header, 4-Pin, Dual row</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>CP2104-F03-GM</t>
-  </si>
-  <si>
-    <t>Single-Chip USB to UART Bridge, 4 Dig I/O Pins, Internal Oscillator, 1024 Bytes EEPROM, -40 to 85 degC, 24-pin QFN</t>
-  </si>
-  <si>
-    <t>CP2104</t>
-  </si>
-  <si>
-    <t>SLAB-QFN-24-2675x2675TP_M</t>
-  </si>
-  <si>
-    <t>CMP-0511-00004-1</t>
   </si>
   <si>
     <t>M7</t>
@@ -385,7 +385,7 @@
     <t>Header, 3-Pin, Dual row</t>
   </si>
   <si>
-    <t>ICSP1, ICSP2, POWER, TEST HEADER, TEST HEADER1, UART</t>
+    <t>ICSP1, ICSP2, POWER, TEST-HEADER, TEST-HEADER1, UART</t>
   </si>
   <si>
     <t>HDR2X3</t>
@@ -609,7 +609,7 @@
     <t>Header, 22-Pin</t>
   </si>
   <si>
-    <t>PIN OUT HEADER 1</t>
+    <t>PIN-OUT</t>
   </si>
   <si>
     <t>HDR1X22</t>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5439BB88-68B4-4707-962F-9756240C82F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA85F9-BE73-4BDA-812B-D1EA7B242953}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1532,16 +1532,16 @@
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1549,85 +1549,85 @@
     </row>
     <row r="11" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1638,27 +1638,27 @@
         <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>60</v>
